--- a/作業伝票/◆伝票確認/伝票確認設計図.xlsx
+++ b/作業伝票/◆伝票確認/伝票確認設計図.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\作業伝票\本社-伝票\◆伝票確認\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\作業伝票\◆伝票確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE6D0D4-B7DC-40ED-A298-1463ADE88EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0496E52-C8F2-4C27-9293-53BA43DBCEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="追加設計" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="概要摂家エイズ" sheetId="6" r:id="rId1"/>
+    <sheet name="追加設計" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1915,6 +1916,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706B8230-2E5D-42D2-A963-B754BEC8CA3A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88C344D-0F39-4E9C-B0BD-2ED9BA3426F3}">
   <dimension ref="B2:E10"/>
   <sheetViews>
@@ -1972,7 +1988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O171"/>
   <sheetViews>
@@ -5572,7 +5588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B56BF3A-41E6-4547-8979-888E86AD663F}">
   <dimension ref="A1:L31"/>
   <sheetViews>
@@ -6205,11 +6221,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D1CB41-9A8E-4316-A113-DFE8AAEFF2A8}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -6311,7 +6327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091BE263-512B-4B7A-A32B-6FE59286B064}">
   <dimension ref="A1:L8"/>
   <sheetViews>

--- a/作業伝票/◆伝票確認/伝票確認設計図.xlsx
+++ b/作業伝票/◆伝票確認/伝票確認設計図.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\作業伝票\◆伝票確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0496E52-C8F2-4C27-9293-53BA43DBCEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD58B27-D21E-4B2E-850B-E49A1F763A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30360" yWindow="1560" windowWidth="23355" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="概要摂家エイズ" sheetId="6" r:id="rId1"/>
+    <sheet name="概要設計図" sheetId="6" r:id="rId1"/>
     <sheet name="追加設計" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="386">
   <si>
     <t>伝票No</t>
   </si>
@@ -1463,6 +1463,520 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■目的</t>
+    <rPh sb="1" eb="3">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>営業が受けた案件が､赤字かどうか判断したい</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>粗利%がいくつあるか判断したい</t>
+    <rPh sb="0" eb="2">
+      <t>アラリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どの項目が赤字か判断したい</t>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前回と比べて良かったのか悪かったのか判断したい</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミスがなければどれだけ黒だったのかも判断したい</t>
+    <rPh sb="11" eb="12">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■基礎設計</t>
+    <rPh sb="1" eb="5">
+      <t>キソセッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォームを作成､グローバル変数を設けて､フォーム上の処理をやりやすくする</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>伝票番号を入力して調査開始すると､調査する｡データは各テーブルに保存する</t>
+    <rPh sb="0" eb="2">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■構成</t>
+    <rPh sb="1" eb="3">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◆伝票収支調査</t>
+    <rPh sb="1" eb="3">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>･伝票収支調査.wfx</t>
+    <rPh sb="1" eb="3">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>system</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>･調査.cmx</t>
+    <rPh sb="1" eb="3">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kex･cmx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tbx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>01伝票収支調査.tbx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>02用紙調査.tbx</t>
+    <rPh sb="2" eb="4">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>03外注調査.tbx</t>
+    <rPh sb="2" eb="4">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>04作業時間.tbx</t>
+    <rPh sb="2" eb="4">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>05材料調査.tbx</t>
+    <rPh sb="2" eb="4">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06送料調査.tbx</t>
+    <rPh sb="2" eb="4">
+      <t>ソウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>┗</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■調査処理概要</t>
+    <rPh sb="1" eb="3">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力された伝票番号がSmastaにあるか調査</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(伝票基本情報を変数に格納)</t>
+    <rPh sb="1" eb="3">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンンスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あれば以下実行 ､無ければエラー出して終了</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>絞り込む</t>
+    <rPh sb="0" eb="1">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(用紙ID ､用紙名､ 枚数 ､金額)</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この時､&amp;前回伝票番号も格納しておく</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼンンカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&amp;前回伝票番号も使って格納する</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>頁 色</t>
+    <rPh sb="0" eb="1">
+      <t>ページ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="3"/>
+      </rPr>
+      <t>1️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>票番号を使って用紙情報を格納する｡</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="3"/>
+      </rPr>
+      <t>2️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>外注情報</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="3"/>
+      </rPr>
+      <t>3️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>作業時間</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各日報から業務内容を抽出する</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>だれが､ 何を､ 何時間</t>
+    <rPh sb="5" eb="6">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ナンジカン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1471,7 +1985,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1520,6 +2034,12 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1917,14 +2437,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706B8230-2E5D-42D2-A963-B754BEC8CA3A}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="C20" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="C21" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="D22" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="D23" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="D24" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="D25" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="D26" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="16.5">
+      <c r="B34" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="16.5">
+      <c r="B39" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="16.5">
+      <c r="B43" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/作業伝票/◆伝票確認/伝票確認設計図.xlsx
+++ b/作業伝票/◆伝票確認/伝票確認設計図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\作業伝票\◆伝票確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD58B27-D21E-4B2E-850B-E49A1F763A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27707C2-0DCC-43A0-A59D-DD9CF7804E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="1560" windowWidth="23355" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要設計図" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="398">
   <si>
     <t>伝票No</t>
   </si>
@@ -1977,6 +1977,171 @@
     </rPh>
     <rPh sb="9" eb="12">
       <t>ナンジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>該当する外注情報を抽出</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="3"/>
+      </rPr>
+      <t>4️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>材料情報</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>直接材料のみを抽出</t>
+    <rPh sb="0" eb="2">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結構めんどくさそう</t>
+    <rPh sb="0" eb="2">
+      <t>ケッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>材料テーブルを確認</t>
+    <rPh sb="0" eb="2">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>直接材料</t>
+    <rPh sb="0" eb="2">
+      <t>チョクセ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PSI版や段ボール数など､案件に対して固定でかかる材料</t>
+    <rPh sb="3" eb="4">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>アンケン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ザイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>間接材料</t>
+    <rPh sb="0" eb="2">
+      <t>カンセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インキなど</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="3"/>
+      </rPr>
+      <t>5️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>送料</t>
+    </r>
+    <rPh sb="3" eb="5">
+      <t>ソウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送料tbxから抽出予定</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2437,10 +2602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706B8230-2E5D-42D2-A963-B754BEC8CA3A}">
-  <dimension ref="B2:F45"/>
+  <dimension ref="B2:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2609,44 +2774,95 @@
         <v>378</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="16.5">
+    <row r="34" spans="2:12" ht="16.5">
       <c r="B34" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:12">
       <c r="B35" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:12">
       <c r="B36" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:12">
       <c r="B37" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="16.5">
+    <row r="39" spans="2:12" ht="16.5">
       <c r="B39" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="16.5">
+    <row r="40" spans="2:12">
+      <c r="B40" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="16.5">
       <c r="B43" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:12">
       <c r="B44" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:12">
       <c r="B45" s="1" t="s">
         <v>385</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="16.5">
+      <c r="B47" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="16.5">
+      <c r="B51" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/作業伝票/◆伝票確認/伝票確認設計図.xlsx
+++ b/作業伝票/◆伝票確認/伝票確認設計図.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\作業伝票\◆伝票確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27707C2-0DCC-43A0-A59D-DD9CF7804E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782CC670-27F2-418B-B135-7536A4FFF079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要設計図" sheetId="6" r:id="rId1"/>
-    <sheet name="追加設計" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
+    <sheet name="1-Smasta" sheetId="7" r:id="rId2"/>
+    <sheet name="2-用紙情報" sheetId="8" r:id="rId3"/>
+    <sheet name="3-外注情報" sheetId="9" r:id="rId4"/>
+    <sheet name="4-作業情報" sheetId="10" r:id="rId5"/>
+    <sheet name="追加設計" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="507">
   <si>
     <t>伝票No</t>
   </si>
@@ -1856,102 +1860,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="3"/>
-      </rPr>
-      <t>1️⃣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>票番号を使って用紙情報を格納する｡</t>
-    </r>
-    <rPh sb="3" eb="5">
-      <t>デンヒョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨウシ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="3"/>
-      </rPr>
-      <t>2️⃣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>外注情報</t>
-    </r>
-    <rPh sb="3" eb="5">
-      <t>ガイチュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="3"/>
-      </rPr>
-      <t>3️⃣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>作業時間</t>
-    </r>
-    <rPh sb="3" eb="5">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>各日報から業務内容を抽出する</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
@@ -1997,34 +1905,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="3"/>
-      </rPr>
-      <t>4️⃣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>材料情報</t>
-    </r>
-    <rPh sb="3" eb="5">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>直接材料のみを抽出</t>
     <rPh sb="0" eb="2">
       <t>チョクセツ</t>
@@ -2108,31 +1988,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="3"/>
-      </rPr>
-      <t>5️⃣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>送料</t>
-    </r>
-    <rPh sb="3" eb="5">
-      <t>ソウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>送料tbxから抽出予定</t>
     <rPh sb="0" eb="2">
       <t>ソウリョウ</t>
@@ -2142,6 +1997,1120 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;補足&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数は､伝票番号用と､前回伝票番号用で2種用意する｡</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>デン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>_x0000__x0000_</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>_x0002__x0004_</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一度抽出したデータも再度呼び出したら､再更新させる｡</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>サイコウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手続きにするとめんどくさいので､基本はグローバル変数を作り､伝票番号での受け渡しにする｡</t>
+    <rPh sb="0" eb="2">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2️⃣番号を使って用紙情報を格納する｡</t>
+    <rPh sb="3" eb="5">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1️⃣Smastaによる基本情報</t>
+    <rPh sb="12" eb="16">
+      <t>キホンジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3️⃣外注情報</t>
+    <rPh sb="3" eb="5">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4️⃣作業時間</t>
+    <rPh sb="3" eb="5">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5️⃣材料情報</t>
+    <rPh sb="3" eb="5">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6️⃣送料</t>
+    <rPh sb="3" eb="5">
+      <t>ソウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>品名､得意先､製品に関する概要基本情報をパッケージ化する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>トクイサキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>キホンジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Smastaに関する 抽出設計について</t>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どの項目を抽出するかって話</t>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハナシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※編集コードが必要になるので注意</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>型</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>補足</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数値</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>伝票ＮＯ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>得意先</t>
+    <rPh sb="0" eb="3">
+      <t>トクイサキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>品名</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当営業</t>
+    <rPh sb="0" eb="4">
+      <t>タントウエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>営業所</t>
+    <rPh sb="0" eb="3">
+      <t>エイギョウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部数</t>
+    <rPh sb="0" eb="2">
+      <t>ブスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部数 → 確定部数</t>
+    <rPh sb="0" eb="2">
+      <t>ブスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>頁数</t>
+    <rPh sb="0" eb="1">
+      <t>ページ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>頁数 → 確定頁数</t>
+    <rPh sb="0" eb="2">
+      <t>ページスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ページスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕上日</t>
+    <rPh sb="0" eb="2">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕上日 → 確定仕上日</t>
+    <rPh sb="0" eb="2">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製版積算</t>
+    <rPh sb="0" eb="2">
+      <t>セイハン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セキサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>印刷積算</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セキサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用紙積算</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セキサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>組外積算</t>
+    <rPh sb="0" eb="1">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セキサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製外積算</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セキサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>印外積算</t>
+    <rPh sb="0" eb="1">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セキサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全外積算</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セキサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送料</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決定金額</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前回伝票</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>組版積算</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通貨</t>
+  </si>
+  <si>
+    <t>通貨</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕上積算</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕外積算</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セキサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列になっているので注意｡ 数値変換して扱う</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>伝票ID</t>
+    <rPh sb="0" eb="2">
+      <t>デンヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集コードいるっけ</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■以下伝票番号で絞り込んで抽出する内容</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>による絞り込み</t>
+    <rPh sb="3" eb="4">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>伝票番号を使用して用紙情報を絞り込みます｡</t>
+    <rPh sb="0" eb="1">
+      <t>デン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&amp;伝票ID</t>
+    <rPh sb="1" eb="3">
+      <t>デンヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subForm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sub02用紙調査.wfx</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sub03外注調査.wfx</t>
+    <rPh sb="5" eb="7">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用紙ID</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銘柄</t>
+    <rPh sb="0" eb="2">
+      <t>メイガラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>紙色</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイズ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重さ</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>枚数</t>
+    <rPh sb="0" eb="2">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入庫単価</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通貨</t>
+    <rPh sb="0" eb="2">
+      <t>ツウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイズID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用紙情報に関する設定項目</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外注情報に関する設定情報</t>
+    <rPh sb="0" eb="2">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業情報</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">日報の厄介なところ｡ </t>
+    <rPh sb="0" eb="2">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤッカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>･各課でtbxが違うので､前参照しなくていけない</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ゼンサンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DTP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>印刷</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕上</t>
+    <rPh sb="0" eb="2">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資材</t>
+    <rPh sb="0" eb="2">
+      <t>シザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どの部署の</t>
+    <rPh sb="2" eb="4">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>誰が</t>
+    <rPh sb="0" eb="1">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どの作業で</t>
+    <rPh sb="2" eb="4">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何時間</t>
+    <rPh sb="0" eb="3">
+      <t>ナンジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業したか</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日報印刷.tbx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日報管理.tbx</t>
+    <rPh sb="0" eb="2">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは材料かも</t>
+    <rPh sb="3" eb="5">
+      <t>ザイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日報仕上.tbx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製版</t>
+    <rPh sb="0" eb="2">
+      <t>セイハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日報製版.tbx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日報組版.tbx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◆使用外部参照テーブル</t>
+    <rPh sb="1" eb="3">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Smasta</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用紙入庫.tbx</t>
+  </si>
+  <si>
+    <t>外注情報でややこいのは外注項目が横並びになっていて､項目ごとに切り分けが必要なところ</t>
+    <rPh sb="0" eb="2">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨコナラ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どこに</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なにを</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>何件</t>
+    <rPh sb="0" eb="2">
+      <t>ナンケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いくらで</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お願いしたか</t>
+    <rPh sb="1" eb="2">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>それは補冊分なのか</t>
+    <rPh sb="3" eb="4">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■以下伝票番号で絞り込んで抽出する内容 9項目あるので注意</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予定金額１</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決定金額１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>区分１</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外注先１</t>
+    <rPh sb="0" eb="3">
+      <t>ガイチュウサキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内容１</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>頁数１</t>
+    <rPh sb="0" eb="1">
+      <t>ページ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>枚数１</t>
+    <rPh sb="0" eb="2">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>┓</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>┻ 決定優先</t>
+    <rPh sb="2" eb="4">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ユウセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミス１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2150,7 +3119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2201,13 +3170,44 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2262,6 +3262,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2299,7 +3323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2322,6 +3346,23 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2602,73 +3643,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706B8230-2E5D-42D2-A963-B754BEC8CA3A}">
-  <dimension ref="B2:L52"/>
+  <dimension ref="B2:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:12">
+      <c r="B2" s="18" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:12">
       <c r="B4" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:12">
       <c r="B5" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:12">
       <c r="B6" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:12">
       <c r="B7" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="2:12">
+      <c r="B11" s="18" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:12">
       <c r="B13" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="2:12">
+      <c r="B16" s="18" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>371</v>
       </c>
@@ -2676,7 +3748,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:5">
       <c r="B19" s="1" t="s">
         <v>371</v>
       </c>
@@ -2684,7 +3756,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:5">
       <c r="C20" s="1" t="s">
         <v>371</v>
       </c>
@@ -2695,7 +3767,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:5">
       <c r="C21" s="1" t="s">
         <v>371</v>
       </c>
@@ -2706,7 +3778,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:5">
       <c r="D22" s="1" t="s">
         <v>371</v>
       </c>
@@ -2714,7 +3786,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:5">
       <c r="D23" s="1" t="s">
         <v>371</v>
       </c>
@@ -2722,7 +3794,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:5">
       <c r="D24" s="1" t="s">
         <v>371</v>
       </c>
@@ -2730,7 +3802,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:5">
       <c r="D25" s="1" t="s">
         <v>371</v>
       </c>
@@ -2738,7 +3810,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:5">
       <c r="D26" s="1" t="s">
         <v>371</v>
       </c>
@@ -2746,123 +3818,281 @@
         <v>370</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="1" t="s">
+    <row r="27" spans="2:5">
+      <c r="D27" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="D28" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="C31" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="C32" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="18" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="1" t="s">
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="1" t="s">
+    <row r="43" spans="2:12">
+      <c r="B43" s="1" t="s">
         <v>375</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="16.5">
-      <c r="B34" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12">
-      <c r="B35" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12">
-      <c r="B36" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12">
-      <c r="B37" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="16.5">
-      <c r="B39" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12">
-      <c r="B40" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="16.5">
-      <c r="B43" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="44" spans="2:12">
       <c r="B44" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="16.5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
       <c r="B47" s="1" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12">
-      <c r="B49" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" ht="16.5">
-      <c r="B51" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
         <v>397</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="B69" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="B73" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091BE263-512B-4B7A-A32B-6FE59286B064}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="15" t="str">
+        <f>_xlfn.TEXTJOIN(,,E1,A1,F1,B1,G1)</f>
+        <v>#条件選択（ [外注] ＜ [外注金額合計] , &amp;青STR )</v>
+      </c>
+      <c r="E1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K7">
+        <v>7600</v>
+      </c>
+      <c r="L7">
+        <f>K7*0.1</f>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>264</v>
+      </c>
+      <c r="L8">
+        <f>K7+L7</f>
+        <v>8360</v>
       </c>
     </row>
   </sheetData>
@@ -2872,6 +4102,1755 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0512C66D-A180-4EBF-A044-4C390943B5F9}">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="35.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="21" customHeight="1">
+      <c r="B5" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="20">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="20">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="20">
+        <v>3</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="20">
+        <v>4</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="20">
+        <v>5</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" s="20">
+        <v>6</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="20">
+        <v>7</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="20">
+        <v>8</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="20">
+        <v>9</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="20">
+        <v>10</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="20">
+        <v>11</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="20">
+        <v>12</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="20">
+        <v>13</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="20">
+        <v>14</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="20">
+        <v>15</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="20">
+        <v>16</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="20">
+        <v>17</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="20">
+        <v>18</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="20">
+        <v>19</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="20">
+        <v>20</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="20">
+        <v>21</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="20">
+        <v>22</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB003A7D-FEAD-4E3F-9CD1-B6D711B409E1}">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1"/>
+      <c r="B7" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616017DA-05AE-48D6-A31D-17CC840DC4FC}">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="N4" t="s">
+        <v>491</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1"/>
+      <c r="B10" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA6C4C0-1867-4E07-9192-F6A0D59DB692}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="P4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1"/>
+      <c r="B17" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88C344D-0F39-4E9C-B0BD-2ED9BA3426F3}">
   <dimension ref="B2:E10"/>
   <sheetViews>
@@ -2929,7 +5908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O171"/>
   <sheetViews>
@@ -6529,7 +9508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B56BF3A-41E6-4547-8979-888E86AD663F}">
   <dimension ref="A1:L31"/>
   <sheetViews>
@@ -7162,7 +10141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D1CB41-9A8E-4316-A113-DFE8AAEFF2A8}">
   <dimension ref="A1:K9"/>
   <sheetViews>
@@ -7266,91 +10245,4 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091BE263-512B-4B7A-A32B-6FE59286B064}">
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="52.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C1" s="15" t="str">
-        <f>_xlfn.TEXTJOIN(,,E1,A1,F1,B1,G1)</f>
-        <v>#条件選択（ [外注] ＜ [外注金額合計] , &amp;青STR )</v>
-      </c>
-      <c r="E1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K7">
-        <v>7600</v>
-      </c>
-      <c r="L7">
-        <f>K7*0.1</f>
-        <v>760</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>264</v>
-      </c>
-      <c r="L8">
-        <f>K7+L7</f>
-        <v>8360</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/作業伝票/◆伝票確認/伝票確認設計図.xlsx
+++ b/作業伝票/◆伝票確認/伝票確認設計図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\作業伝票\◆伝票確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782CC670-27F2-418B-B135-7536A4FFF079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF97140-E8D8-4D87-A909-E785B6650DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要設計図" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="535">
   <si>
     <t>伝票No</t>
   </si>
@@ -2126,10 +2126,7 @@
       <t>ガイチュウ</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>ガイチュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
+      <t>ガイチュウジョウホウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2139,10 +2136,7 @@
       <t>サギョウ</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジカン</t>
+      <t>サギョウジカン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2152,10 +2146,7 @@
       <t>ザイリョウ</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
+      <t>ザイリョウジョウホウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2302,19 +2293,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>部数 → 確定部数</t>
-    <rPh sb="0" eb="2">
-      <t>ブスウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ブスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>サイズ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2329,19 +2307,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>頁数 → 確定頁数</t>
-    <rPh sb="0" eb="2">
-      <t>ページスウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ページスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>仕上日</t>
     <rPh sb="0" eb="2">
       <t>シア</t>
@@ -2352,25 +2317,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>仕上日 → 確定仕上日</t>
-    <rPh sb="0" eb="2">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>製版積算</t>
     <rPh sb="0" eb="2">
       <t>セイハン</t>
@@ -2891,13 +2837,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>これは材料かも</t>
-    <rPh sb="3" eb="5">
-      <t>ザイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日報仕上.tbx</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3111,6 +3050,266 @@
     <t>文字列</t>
     <rPh sb="0" eb="3">
       <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確定部数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>┻ 確定優先</t>
+    <rPh sb="2" eb="4">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ユウセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確定頁数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確定仕上日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>┻ 確定優先 ※ 数値変換</t>
+    <rPh sb="2" eb="4">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外注区分</t>
+    <rPh sb="0" eb="2">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外注先</t>
+    <rPh sb="0" eb="3">
+      <t>ガイチュウサキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外注内容</t>
+    <rPh sb="0" eb="2">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外注頁</t>
+    <rPh sb="0" eb="2">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ページ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外注枚数</t>
+    <rPh sb="0" eb="2">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外注金額</t>
+    <rPh sb="0" eb="2">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外注ミス</t>
+    <rPh sb="0" eb="2">
+      <t>ガイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用紙銘柄</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイガラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用紙紙色</t>
+    <rPh sb="2" eb="3">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用紙サイズID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用紙サイズ名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用紙目</t>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用紙重さ</t>
+    <rPh sb="2" eb="3">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用紙枚数</t>
+    <rPh sb="2" eb="4">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用紙金額</t>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用紙入庫単価</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前回伝票ID</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>区分２</t>
+    <rPh sb="0" eb="2">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外注先２</t>
+    <rPh sb="0" eb="3">
+      <t>ガイチュウサキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内容２</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>頁数２</t>
+    <rPh sb="0" eb="1">
+      <t>ページ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>枚数２</t>
+    <rPh sb="0" eb="2">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予定金額２</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決定金額２</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミス２</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下9項まで続きます</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは材料情報にかも</t>
+    <rPh sb="3" eb="5">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3119,7 +3318,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="&quot;&amp;&quot;@"/>
+  </numFmts>
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3205,6 +3407,14 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -3323,7 +3533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3353,7 +3563,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3363,6 +3572,11 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3645,7 +3859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706B8230-2E5D-42D2-A963-B754BEC8CA3A}">
   <dimension ref="B2:L77"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -3820,10 +4034,10 @@
     </row>
     <row r="27" spans="2:5">
       <c r="D27" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -3831,22 +4045,22 @@
         <v>371</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="C31" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="C32" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -4103,16 +4317,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0512C66D-A180-4EBF-A044-4C390943B5F9}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="35.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -4146,22 +4362,22 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="G5" s="29" t="s">
+      <c r="F5" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>408</v>
       </c>
     </row>
@@ -4176,10 +4392,10 @@
         <v>411</v>
       </c>
       <c r="E6" s="21"/>
-      <c r="F6" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="G6" s="26" t="s">
+      <c r="F6" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4191,14 +4407,14 @@
         <v>413</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>439</v>
+      <c r="G7" s="25" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4209,14 +4425,14 @@
         <v>414</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E8" s="21"/>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>439</v>
+      <c r="G8" s="25" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4227,14 +4443,14 @@
         <v>416</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E9" s="21"/>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="34" t="s">
         <v>416</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>439</v>
+      <c r="G9" s="25" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4245,14 +4461,14 @@
         <v>415</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E10" s="21"/>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>439</v>
+      <c r="G10" s="25" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4266,332 +4482,356 @@
         <v>411</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="F11" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="F11" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="26"/>
+      <c r="B12" s="20">
+        <v>7</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E13" s="21"/>
-      <c r="F13" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>439</v>
+      <c r="F13" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" s="20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="G14" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="B15" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>422</v>
+        <v>505</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>440</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>436</v>
+        <v>437</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>424</v>
+        <v>506</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>436</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>436</v>
+      <c r="F18" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E19" s="21"/>
-      <c r="F19" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>436</v>
+      <c r="F19" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>436</v>
+      <c r="F20" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E21" s="21"/>
-      <c r="F21" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>436</v>
+      <c r="F21" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E22" s="21"/>
-      <c r="F22" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>436</v>
+      <c r="F22" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E23" s="21"/>
-      <c r="F23" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>436</v>
+      <c r="F23" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E24" s="21"/>
-      <c r="F24" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>436</v>
+      <c r="F24" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E25" s="21"/>
-      <c r="F25" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>436</v>
+      <c r="F25" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E26" s="21"/>
-      <c r="F26" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>436</v>
+      <c r="F26" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E27" s="21"/>
-      <c r="F27" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>436</v>
+      <c r="F27" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="20">
-        <v>22</v>
-      </c>
-      <c r="C28" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="F28" s="25" t="s">
+      <c r="E28" s="21"/>
+      <c r="F28" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="G28" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="G28" s="27" t="s">
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="20">
+        <v>24</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="20">
+        <v>25</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="G30" s="26" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="20"/>
@@ -4616,6 +4856,22 @@
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -4628,32 +4884,35 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="A1" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4670,7 +4929,7 @@
     <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4702,10 +4961,10 @@
     <row r="5" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4721,7 +4980,7 @@
     <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4737,22 +4996,22 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1"/>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="36" t="s">
         <v>410</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="36" t="s">
         <v>407</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="36" t="s">
         <v>408</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="36" t="s">
         <v>409</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="G7" s="29" t="s">
+      <c r="F7" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="G7" s="37" t="s">
         <v>408</v>
       </c>
       <c r="H7" s="1"/>
@@ -4764,18 +5023,20 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1"/>
-      <c r="B8" s="20"/>
+      <c r="B8" s="20">
+        <v>1</v>
+      </c>
       <c r="C8" s="20" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="21"/>
-      <c r="F8" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="G8" s="26" t="s">
+      <c r="F8" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="G8" s="25" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="1"/>
@@ -4787,19 +5048,21 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1"/>
-      <c r="B9" s="20"/>
+      <c r="B9" s="20">
+        <v>2</v>
+      </c>
       <c r="C9" s="20" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E9" s="21"/>
-      <c r="F9" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>461</v>
+      <c r="F9" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>458</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -4810,19 +5073,21 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1"/>
-      <c r="B10" s="20"/>
+      <c r="B10" s="20">
+        <v>3</v>
+      </c>
       <c r="C10" s="20" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E10" s="21"/>
-      <c r="F10" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>461</v>
+      <c r="F10" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>458</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -4833,18 +5098,20 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1"/>
-      <c r="B11" s="20"/>
+      <c r="B11" s="20">
+        <v>4</v>
+      </c>
       <c r="C11" s="20" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="21"/>
-      <c r="F11" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="G11" s="26" t="s">
+      <c r="F11" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="1"/>
@@ -4855,99 +5122,111 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="20"/>
+      <c r="B12" s="20">
+        <v>5</v>
+      </c>
       <c r="C12" s="20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E12" s="21"/>
-      <c r="F12" s="24" t="s">
-        <v>455</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>461</v>
+      <c r="F12" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="20"/>
+      <c r="B13" s="20">
+        <v>6</v>
+      </c>
       <c r="C13" s="20" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E13" s="21"/>
-      <c r="F13" s="24" t="s">
-        <v>456</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>461</v>
+      <c r="F13" s="34" t="s">
+        <v>519</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="20"/>
+      <c r="B14" s="20">
+        <v>7</v>
+      </c>
       <c r="C14" s="20" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="21"/>
-      <c r="F14" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="G14" s="26" t="s">
+      <c r="F14" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="G14" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="20"/>
+      <c r="B15" s="20">
+        <v>8</v>
+      </c>
       <c r="C15" s="20" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="21"/>
-      <c r="F15" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="G15" s="26" t="s">
+      <c r="F15" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="G15" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="20"/>
+      <c r="B16" s="20">
+        <v>9</v>
+      </c>
       <c r="C16" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>462</v>
-      </c>
       <c r="E16" s="21"/>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="G16" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="G16" s="26" t="s">
-        <v>462</v>
-      </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="20"/>
+      <c r="B17" s="20">
+        <v>10</v>
+      </c>
       <c r="C17" s="20" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E17" s="21"/>
-      <c r="F17" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>462</v>
+      <c r="F17" s="34" t="s">
+        <v>523</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -4955,48 +5234,48 @@
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="26"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="26"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="26"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="26"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -5006,39 +5285,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616017DA-05AE-48D6-A31D-17CC840DC4FC}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-    </row>
-    <row r="2" spans="1:16">
+    <row r="1" spans="1:14">
+      <c r="A1" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5052,10 +5332,10 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:14">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5064,12 +5344,23 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="J3" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="L3" t="s">
+        <v>487</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5079,25 +5370,12 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>490</v>
+      </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="N4" t="s">
-        <v>491</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -5109,15 +5387,15 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -5129,9 +5407,11 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:14">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>491</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -5144,18 +5424,26 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:14">
       <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="B8" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>408</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -5163,16 +5451,20 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:14">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="G9" s="25"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -5180,26 +5472,20 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:14">
       <c r="A10" s="1"/>
-      <c r="B10" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>408</v>
-      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="G10" s="25"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -5207,18 +5493,20 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:14">
       <c r="A11" s="1"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E11" s="21"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="G11" s="25"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -5226,18 +5514,20 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:14">
       <c r="A12" s="1"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>506</v>
+        <v>411</v>
       </c>
       <c r="E12" s="21"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="26"/>
+      <c r="F12" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="G12" s="25"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -5245,167 +5535,259 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:14">
       <c r="B13" s="20"/>
       <c r="C13" s="20" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="E13" s="21"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1"/>
+      <c r="F13" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" s="20"/>
       <c r="C14" s="20" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:16">
+        <v>433</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="B15" s="20"/>
       <c r="C15" s="20" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" spans="1:16">
+        <v>432</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="B16" s="20"/>
       <c r="C16" s="20" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>503</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="26"/>
+        <v>411</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="20"/>
       <c r="C17" s="20" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>504</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="26"/>
+        <v>436</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="20"/>
       <c r="C18" s="20" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>411</v>
+        <v>502</v>
       </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="26"/>
+      <c r="F18" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="C19" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>436</v>
+      </c>
       <c r="E19" s="21"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="26"/>
+      <c r="F19" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+      <c r="C20" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>411</v>
+      </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
+      <c r="C21" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>411</v>
+      </c>
       <c r="E21" s="21"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="26"/>
+      <c r="F21" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="26"/>
+      <c r="C22" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="26"/>
+      <c r="C23" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
+      <c r="C24" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>411</v>
+      </c>
       <c r="E24" s="21"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="26"/>
+      <c r="F24" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="26"/>
+      <c r="E25" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="26"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="26"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -5418,14 +5800,14 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="18" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -5443,7 +5825,7 @@
     <row r="2" spans="1:16">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5460,7 +5842,7 @@
     <row r="3" spans="1:16">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5477,40 +5859,40 @@
     <row r="4" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="P4" t="s">
-        <v>480</v>
+        <v>476</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -5530,10 +5912,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -5551,10 +5933,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -5565,6 +5947,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1"/>
@@ -5572,10 +5955,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -5593,10 +5976,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -5614,10 +5997,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -5692,10 +6075,10 @@
     <row r="15" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -5711,7 +6094,7 @@
     <row r="16" spans="1:16">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -5727,22 +6110,22 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>410</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>407</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="32" t="s">
         <v>408</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>442</v>
-      </c>
-      <c r="G17" s="34" t="s">
+      <c r="F17" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="G17" s="33" t="s">
         <v>408</v>
       </c>
       <c r="H17" s="1"/>
@@ -5756,16 +6139,16 @@
       <c r="A18" s="1"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="G18" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>51</v>
       </c>
       <c r="H18" s="1"/>
@@ -5779,17 +6162,17 @@
       <c r="A19" s="1"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>461</v>
+        <v>450</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>458</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -5802,17 +6185,17 @@
       <c r="A20" s="1"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>461</v>
+        <v>451</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>458</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -5825,16 +6208,16 @@
       <c r="A21" s="1"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="G21" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="G21" s="25" t="s">
         <v>51</v>
       </c>
       <c r="H21" s="1"/>

--- a/作業伝票/◆伝票確認/伝票確認設計図.xlsx
+++ b/作業伝票/◆伝票確認/伝票確認設計図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\作業伝票\◆伝票確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF97140-E8D8-4D87-A909-E785B6650DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D54935D-70F4-4464-9B32-C1F450D2B797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要設計図" sheetId="6" r:id="rId1"/>
@@ -18,11 +18,13 @@
     <sheet name="2-用紙情報" sheetId="8" r:id="rId3"/>
     <sheet name="3-外注情報" sheetId="9" r:id="rId4"/>
     <sheet name="4-作業情報" sheetId="10" r:id="rId5"/>
-    <sheet name="追加設計" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId9"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId10"/>
+    <sheet name="5-材料情報" sheetId="11" r:id="rId6"/>
+    <sheet name="6-送料情報" sheetId="12" r:id="rId7"/>
+    <sheet name="追加設計" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId11"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="590">
   <si>
     <t>伝票No</t>
   </si>
@@ -3310,6 +3312,584 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示だけならいらない</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◆作業内容は 内容CD を参照して作業名と照らし合わせる</t>
+    <rPh sb="1" eb="3">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→一旦やめておく</t>
+    <rPh sb="1" eb="3">
+      <t>イッタン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◆関わった人数と総時間を集計する｡</t>
+    <rPh sb="1" eb="2">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CDの件数で人数を表示</t>
+    <rPh sb="3" eb="5">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者</t>
+  </si>
+  <si>
+    <t>時間</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業時間</t>
+    <rPh sb="0" eb="4">
+      <t>サギョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■｢日報組版.tbx｣ 以下伝票番号で絞り込んで抽出する内容</t>
+    <rPh sb="12" eb="14">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミス</t>
+  </si>
+  <si>
+    <t>ミス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>組版</t>
+    <rPh sb="0" eb="2">
+      <t>クミハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○○人</t>
+    <rPh sb="2" eb="3">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分</t>
+    <rPh sb="0" eb="1">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>円</t>
+    <rPh sb="0" eb="1">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロス作業</t>
+    <rPh sb="2" eb="4">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■｢日報製版.tbx｣ 以下伝票番号で絞り込んで抽出する内容</t>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>菊全</t>
+    <rPh sb="0" eb="1">
+      <t>キク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>菊半</t>
+    <rPh sb="0" eb="2">
+      <t>キクハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※置き換える</t>
+    <rPh sb="1" eb="2">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>菊全版サイズ</t>
+    <rPh sb="0" eb="1">
+      <t>キク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>菊半版サイズ</t>
+    <rPh sb="0" eb="2">
+      <t>キクハン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>┳</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>菊全版枚数</t>
+    <rPh sb="0" eb="1">
+      <t>キク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>菊半版枚数</t>
+    <rPh sb="0" eb="2">
+      <t>キクハン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■｢日報印刷.tbx｣ 以下伝票番号で絞り込んで抽出する内容</t>
+    <rPh sb="4" eb="6">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【1.DTP】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【2.製版】</t>
+    <rPh sb="3" eb="5">
+      <t>セイハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【3.資材】</t>
+    <rPh sb="3" eb="5">
+      <t>シザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変換</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作業内容</t>
+    <rPh sb="0" eb="4">
+      <t>サギョウナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【4.印刷】</t>
+    <rPh sb="3" eb="5">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【5.製品】</t>
+    <rPh sb="3" eb="5">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■｢日報仕上.tbx｣ 以下伝票番号で絞り込んで抽出する内容</t>
+    <rPh sb="12" eb="14">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【6.管理】</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■｢日報管理.tbx｣ 以下伝票番号で絞り込んで抽出する内容</t>
+    <rPh sb="12" eb="14">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内容読み取るけど使わないでいく｡</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>みたいにする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>直接材料</t>
+    <rPh sb="0" eb="2">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理工数に入れちゃうか</t>
+    <rPh sb="0" eb="4">
+      <t>カンリコウスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>材料に関するテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>直接材料に関する情報をまとめます｡</t>
+    <rPh sb="0" eb="2">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今んところ｡作業情報からしか割り出せない</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送料に関するテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送料.tbx</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>から情報を抜き出す</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>運送会社</t>
+    <rPh sb="0" eb="4">
+      <t>ウンソウガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>運送会社</t>
+    <rPh sb="0" eb="4">
+      <t>ウンソウカイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予定金額</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>┻ 金額を優先</t>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ユウセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日時</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3417,7 +3997,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3496,8 +4076,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3529,11 +4121,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3562,7 +4191,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3577,6 +4205,39 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3859,8 +4520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706B8230-2E5D-42D2-A963-B754BEC8CA3A}">
   <dimension ref="B2:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4229,6 +4890,745 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B56BF3A-41E6-4547-8979-888E86AD663F}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="str">
+        <f>"前"&amp;B4</f>
+        <v>前外注名1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="str">
+        <f>"前"&amp;I4</f>
+        <v>前用紙名1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D31" si="0">"前"&amp;B5</f>
+        <v>前外内容1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" ref="K5:K24" si="1">"前"&amp;I5</f>
+        <v>前用紙枚数1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>前外決定金額1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙単価1</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>前外注名2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙金額1</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>前外内容2</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙名2</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>前外決定金額2</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙枚数2</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>前外注名3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙単価2</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>前外内容3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙金額2</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>前外決定金額3</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙名3</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>前外注名4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙枚数3</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>前外内容4</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙単価3</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>前外決定金額4</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙金額3</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>前外注名5</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙名4</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>前外内容5</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙枚数4</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>前外決定金額5</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙単価4</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>前外注名6</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙金額4</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>前外内容6</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙名5</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>前外決定金額6</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙枚数5</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>前外注名7</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙単価5</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>前外内容7</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙金額5</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>前外決定金額7</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>前用紙金額合計</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>前外注名8</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>前外内容8</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>前外決定金額8</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>前外注名9</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>前外内容9</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>前外決定金額9</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>前外注金額合計</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D1CB41-9A8E-4316-A113-DFE8AAEFF2A8}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.625" customWidth="1"/>
+    <col min="4" max="4" width="116.25" customWidth="1"/>
+    <col min="5" max="11" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="12" t="str">
+        <f>_xlfn.TEXTJOIN(,,E1,A1,F1,B1,G1,A1,H1,B1,I1,A1,J1,B1,K1)</f>
+        <v>#条件選択（[売上総額] &gt; [前売上総額] , &amp;↑,[売上総額] &lt; [前売上総額] , &amp;↓, [売上総額] = [前売上総額], "" )</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="12" t="str">
+        <f>_xlfn.TEXTJOIN(,,E2,A1,F2,B1,G2,A1,H2,B1,I2)</f>
+        <v>#条件選択（[売上総額] &gt; [前売上総額] , &amp;赤STR , [売上総額] &lt; [前売上総額] , &amp;青STR )</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091BE263-512B-4B7A-A32B-6FE59286B064}">
   <dimension ref="A1:L8"/>
   <sheetViews>
@@ -4319,8 +5719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0512C66D-A180-4EBF-A044-4C390943B5F9}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4362,22 +5762,22 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>439</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>408</v>
       </c>
     </row>
@@ -4392,10 +5792,10 @@
         <v>411</v>
       </c>
       <c r="E6" s="21"/>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4410,10 +5810,10 @@
         <v>436</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>436</v>
       </c>
     </row>
@@ -4428,10 +5828,10 @@
         <v>436</v>
       </c>
       <c r="E8" s="21"/>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>436</v>
       </c>
     </row>
@@ -4446,10 +5846,10 @@
         <v>436</v>
       </c>
       <c r="E9" s="21"/>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>436</v>
       </c>
     </row>
@@ -4464,10 +5864,10 @@
         <v>436</v>
       </c>
       <c r="E10" s="21"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="24" t="s">
         <v>436</v>
       </c>
     </row>
@@ -4484,10 +5884,10 @@
       <c r="E11" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4504,8 +5904,8 @@
       <c r="E12" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="25"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="20">
@@ -4518,10 +5918,10 @@
         <v>436</v>
       </c>
       <c r="E13" s="21"/>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="24" t="s">
         <v>436</v>
       </c>
     </row>
@@ -4538,10 +5938,10 @@
       <c r="E14" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4558,8 +5958,8 @@
       <c r="E15" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="20">
@@ -4574,11 +5974,11 @@
       <c r="E16" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="G16" s="25" t="s">
-        <v>437</v>
+      <c r="G16" s="24" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -4594,8 +5994,8 @@
       <c r="E17" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="25"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="20">
@@ -4608,10 +6008,10 @@
         <v>433</v>
       </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="24" t="s">
         <v>433</v>
       </c>
     </row>
@@ -4626,10 +6026,10 @@
         <v>433</v>
       </c>
       <c r="E19" s="21"/>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="24" t="s">
         <v>433</v>
       </c>
     </row>
@@ -4644,10 +6044,10 @@
         <v>433</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="33" t="s">
         <v>422</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="24" t="s">
         <v>433</v>
       </c>
     </row>
@@ -4662,10 +6062,10 @@
         <v>433</v>
       </c>
       <c r="E21" s="21"/>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="24" t="s">
         <v>433</v>
       </c>
     </row>
@@ -4680,10 +6080,10 @@
         <v>433</v>
       </c>
       <c r="E22" s="21"/>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="24" t="s">
         <v>433</v>
       </c>
     </row>
@@ -4698,10 +6098,10 @@
         <v>433</v>
       </c>
       <c r="E23" s="21"/>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="24" t="s">
         <v>433</v>
       </c>
     </row>
@@ -4716,10 +6116,10 @@
         <v>433</v>
       </c>
       <c r="E24" s="21"/>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="24" t="s">
         <v>433</v>
       </c>
     </row>
@@ -4734,10 +6134,10 @@
         <v>433</v>
       </c>
       <c r="E25" s="21"/>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="24" t="s">
         <v>433</v>
       </c>
     </row>
@@ -4752,10 +6152,10 @@
         <v>433</v>
       </c>
       <c r="E26" s="21"/>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="33" t="s">
         <v>435</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="24" t="s">
         <v>433</v>
       </c>
     </row>
@@ -4770,10 +6170,10 @@
         <v>433</v>
       </c>
       <c r="E27" s="21"/>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="24" t="s">
         <v>433</v>
       </c>
     </row>
@@ -4788,10 +6188,10 @@
         <v>433</v>
       </c>
       <c r="E28" s="21"/>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="24" t="s">
         <v>433</v>
       </c>
     </row>
@@ -4806,10 +6206,10 @@
         <v>433</v>
       </c>
       <c r="E29" s="21"/>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="24" t="s">
         <v>433</v>
       </c>
     </row>
@@ -4826,10 +6226,10 @@
       <c r="E30" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="25" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4996,22 +6396,22 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1"/>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>407</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="36" t="s">
         <v>408</v>
       </c>
       <c r="H7" s="1"/>
@@ -5033,10 +6433,10 @@
         <v>51</v>
       </c>
       <c r="E8" s="21"/>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="1"/>
@@ -5058,10 +6458,10 @@
         <v>458</v>
       </c>
       <c r="E9" s="21"/>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>458</v>
       </c>
       <c r="H9" s="1"/>
@@ -5083,10 +6483,10 @@
         <v>458</v>
       </c>
       <c r="E10" s="21"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="33" t="s">
         <v>516</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="24" t="s">
         <v>458</v>
       </c>
       <c r="H10" s="1"/>
@@ -5108,10 +6508,10 @@
         <v>51</v>
       </c>
       <c r="E11" s="21"/>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="33" t="s">
         <v>517</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="1"/>
@@ -5132,10 +6532,10 @@
         <v>458</v>
       </c>
       <c r="E12" s="21"/>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="33" t="s">
         <v>518</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="24" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5150,10 +6550,10 @@
         <v>458</v>
       </c>
       <c r="E13" s="21"/>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="33" t="s">
         <v>519</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="24" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5168,10 +6568,10 @@
         <v>51</v>
       </c>
       <c r="E14" s="21"/>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>520</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="24" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5186,10 +6586,10 @@
         <v>51</v>
       </c>
       <c r="E15" s="21"/>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="24" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5204,10 +6604,10 @@
         <v>459</v>
       </c>
       <c r="E16" s="21"/>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="24" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5222,10 +6622,10 @@
         <v>459</v>
       </c>
       <c r="E17" s="21"/>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="33" t="s">
         <v>523</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="24" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5234,48 +6634,48 @@
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="25"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="25"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="25"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="25"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="25"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="25"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -5288,7 +6688,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5299,21 +6699,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1"/>
@@ -5426,22 +6826,22 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="29" t="s">
         <v>408</v>
       </c>
       <c r="H8" s="1"/>
@@ -5461,10 +6861,10 @@
         <v>436</v>
       </c>
       <c r="E9" s="21"/>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -5482,10 +6882,10 @@
         <v>502</v>
       </c>
       <c r="E10" s="21"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -5503,10 +6903,10 @@
         <v>436</v>
       </c>
       <c r="E11" s="21"/>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -5524,10 +6924,10 @@
         <v>411</v>
       </c>
       <c r="E12" s="21"/>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -5544,10 +6944,10 @@
         <v>411</v>
       </c>
       <c r="E13" s="21"/>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="20"/>
@@ -5560,8 +6960,8 @@
       <c r="E14" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="25"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="20"/>
@@ -5574,38 +6974,38 @@
       <c r="E15" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="33" t="s">
         <v>513</v>
       </c>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20" t="s">
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" ht="19.5" thickBot="1">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="43" t="s">
         <v>411</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="34" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="44" t="s">
         <v>514</v>
       </c>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20" t="s">
+      <c r="G16" s="45"/>
+    </row>
+    <row r="17" spans="2:7" ht="19.5" thickTop="1">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38" t="s">
         <v>525</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="39" t="s">
         <v>436</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="34" t="s">
+      <c r="E17" s="39"/>
+      <c r="F17" s="40" t="s">
         <v>508</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="20"/>
@@ -5616,10 +7016,10 @@
         <v>502</v>
       </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="G18" s="25"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="20"/>
@@ -5630,10 +7030,10 @@
         <v>436</v>
       </c>
       <c r="E19" s="21"/>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="20"/>
@@ -5644,10 +7044,10 @@
         <v>411</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="G20" s="25"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="20"/>
@@ -5658,10 +7058,10 @@
         <v>411</v>
       </c>
       <c r="E21" s="21"/>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="G21" s="25"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="20"/>
@@ -5674,8 +7074,8 @@
       <c r="E22" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="25"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="20"/>
@@ -5688,10 +7088,10 @@
       <c r="E23" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="33" t="s">
         <v>513</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="20"/>
@@ -5702,10 +7102,10 @@
         <v>411</v>
       </c>
       <c r="E24" s="21"/>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="G24" s="25"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="20"/>
@@ -5714,80 +7114,80 @@
       <c r="E25" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="25"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="25"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="25"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="25"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="25"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="25"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="25"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="25"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="25"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="25"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -5797,15 +7197,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA6C4C0-1867-4E07-9192-F6A0D59DB692}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:U74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:21">
       <c r="A1" s="18" t="s">
         <v>463</v>
       </c>
@@ -5822,7 +7226,7 @@
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:21">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>444</v>
@@ -5839,13 +7243,15 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:21">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>441</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>535</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -5856,7 +7262,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:21">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>464</v>
@@ -5885,11 +7291,11 @@
       <c r="N4" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="37" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:21">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>465</v>
@@ -5906,7 +7312,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:21">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>1</v>
@@ -5927,7 +7333,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:21">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -5942,14 +7348,16 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>536</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="P7" s="12"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:21">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>3</v>
@@ -5964,13 +7372,15 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>537</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:21">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>4</v>
@@ -5991,7 +7401,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:21">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>5</v>
@@ -6006,13 +7416,15 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:21">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6021,13 +7433,15 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>539</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:21">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -6042,7 +7456,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:21">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6057,9 +7471,11 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:21">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>563</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -6072,7 +7488,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:21">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>445</v>
@@ -6091,10 +7507,10 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:21">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>442</v>
+        <v>543</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -6106,26 +7522,38 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="M16" s="47" t="s">
+        <v>546</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1"/>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="31" t="s">
         <v>409</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="32" t="s">
         <v>439</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="32" t="s">
         <v>408</v>
       </c>
       <c r="H17" s="1"/>
@@ -6133,46 +7561,102 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="M17" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="N17" t="s">
+        <v>547</v>
+      </c>
+      <c r="O17" t="s">
+        <v>542</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="R17" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="T17" t="s">
+        <v>548</v>
+      </c>
+      <c r="U17" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1"/>
-      <c r="B18" s="20"/>
+      <c r="B18" s="20">
+        <v>1</v>
+      </c>
       <c r="C18" s="20" t="s">
-        <v>449</v>
+        <v>540</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>51</v>
+        <v>436</v>
       </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="24" t="s">
-        <v>449</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>51</v>
+      <c r="F18" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>436</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="M18" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="N18" t="s">
+        <v>547</v>
+      </c>
+      <c r="O18" t="s">
+        <v>542</v>
+      </c>
+      <c r="P18" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="R18" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="T18" t="s">
+        <v>548</v>
+      </c>
+      <c r="U18" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="20">
+        <v>2</v>
+      </c>
       <c r="C19" s="20" t="s">
-        <v>450</v>
+        <v>541</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>458</v>
+        <v>1</v>
       </c>
       <c r="E19" s="21"/>
-      <c r="F19" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>458</v>
+      <c r="F19" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>550</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -6180,52 +7664,947 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" t="s">
+        <v>547</v>
+      </c>
+      <c r="O19" t="s">
+        <v>542</v>
+      </c>
+      <c r="P19" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="R19" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="T19" t="s">
+        <v>548</v>
+      </c>
+      <c r="U19" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="19.5" thickBot="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="20">
+        <v>3</v>
+      </c>
       <c r="C20" s="20" t="s">
-        <v>451</v>
+        <v>544</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>458</v>
+        <v>1</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="24" t="s">
-        <v>451</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>458</v>
+      <c r="F20" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>411</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="M20" s="58"/>
+      <c r="N20" s="59" t="s">
+        <v>547</v>
+      </c>
+      <c r="O20" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="P20" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q20" s="58" t="s">
+        <v>550</v>
+      </c>
+      <c r="R20" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="S20" s="58" t="s">
+        <v>549</v>
+      </c>
+      <c r="T20" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="U20" s="59" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="19.5" thickTop="1">
       <c r="A21" s="1"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>51</v>
-      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="B23" t="s">
+        <v>564</v>
+      </c>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="B24" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="N24" t="s">
+        <v>547</v>
+      </c>
+      <c r="O24" t="s">
+        <v>542</v>
+      </c>
+      <c r="P24" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="R24" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="T24" t="s">
+        <v>548</v>
+      </c>
+      <c r="U24" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="B25" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="N25" t="s">
+        <v>547</v>
+      </c>
+      <c r="O25" t="s">
+        <v>542</v>
+      </c>
+      <c r="P25" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="R25" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="T25" t="s">
+        <v>548</v>
+      </c>
+      <c r="U25" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="B26" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" t="s">
+        <v>547</v>
+      </c>
+      <c r="O26" t="s">
+        <v>542</v>
+      </c>
+      <c r="P26" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="R26" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="T26" t="s">
+        <v>548</v>
+      </c>
+      <c r="U26" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="19.5" thickBot="1">
+      <c r="B27" s="20">
+        <v>1</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="M27" s="58"/>
+      <c r="N27" s="59" t="s">
+        <v>547</v>
+      </c>
+      <c r="O27" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="P27" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q27" s="58" t="s">
+        <v>550</v>
+      </c>
+      <c r="R27" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="S27" s="58" t="s">
+        <v>549</v>
+      </c>
+      <c r="T27" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="U27" s="59" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="19.5" thickTop="1">
+      <c r="B28" s="20">
+        <v>2</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="B29" s="20">
+        <v>3</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="B30" s="62">
+        <v>4</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>418</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>559</v>
+      </c>
+      <c r="F30" s="64" t="s">
+        <v>557</v>
+      </c>
+      <c r="G30" s="65" t="s">
+        <v>436</v>
+      </c>
+      <c r="H30" s="66" t="s">
+        <v>577</v>
+      </c>
+      <c r="I30" t="s">
+        <v>554</v>
+      </c>
+      <c r="J30" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="B31" s="62">
+        <v>5</v>
+      </c>
+      <c r="C31" s="62"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>558</v>
+      </c>
+      <c r="G31" s="65" t="s">
+        <v>436</v>
+      </c>
+      <c r="H31" s="66" t="s">
+        <v>577</v>
+      </c>
+      <c r="I31" t="s">
+        <v>556</v>
+      </c>
+      <c r="M31" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="B32" s="62">
+        <v>6</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>455</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="63" t="s">
+        <v>559</v>
+      </c>
+      <c r="F32" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="G32" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="H32" s="66" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="62">
+        <v>7</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63" t="s">
+        <v>371</v>
+      </c>
+      <c r="F33" s="64" t="s">
+        <v>561</v>
+      </c>
+      <c r="G33" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="H33" s="66" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="20">
+        <v>8</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="20">
+        <v>9</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="20">
+        <v>10</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="G41" s="49" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="20">
+        <v>1</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="20">
+        <v>2</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="I43" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="20">
+        <v>2</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="20">
+        <v>3</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="D51" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="E51" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="F51" s="55" t="s">
+        <v>439</v>
+      </c>
+      <c r="G51" s="55" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="20">
+        <v>1</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E52" s="21"/>
+      <c r="F52" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="20">
+        <v>2</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="20">
+        <v>2</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="21"/>
+      <c r="F54" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="20">
+        <v>3</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="21"/>
+      <c r="F55" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="20">
+        <v>1</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E62" s="21"/>
+      <c r="F62" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="20">
+        <v>2</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="F63" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="20">
+        <v>2</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="21"/>
+      <c r="F64" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="20">
+        <v>3</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="21"/>
+      <c r="F65" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="56" t="s">
+        <v>410</v>
+      </c>
+      <c r="C70" s="56" t="s">
+        <v>407</v>
+      </c>
+      <c r="D70" s="56" t="s">
+        <v>408</v>
+      </c>
+      <c r="E70" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="F70" s="57" t="s">
+        <v>439</v>
+      </c>
+      <c r="G70" s="57" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="20">
+        <v>1</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E71" s="21"/>
+      <c r="F71" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="20">
+        <v>2</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="H72" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="20">
+        <v>2</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="21"/>
+      <c r="F73" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="20">
+        <v>3</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="21"/>
+      <c r="F74" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>411</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -6234,6 +8613,476 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1079463-6019-47E2-888D-482CABEF64DD}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1"/>
+      <c r="B8" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F2027C-E6DF-48E7-A1F4-0F2CFF13C2A9}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="47" t="s">
+        <v>582</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1"/>
+      <c r="B8" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88C344D-0F39-4E9C-B0BD-2ED9BA3426F3}">
   <dimension ref="B2:E10"/>
   <sheetViews>
@@ -6291,7 +9140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O171"/>
   <sheetViews>
@@ -9889,743 +12738,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B56BF3A-41E6-4547-8979-888E86AD663F}">
-  <dimension ref="A1:L31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="str">
-        <f>"前"&amp;B4</f>
-        <v>前外注名1</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" t="str">
-        <f>"前"&amp;I4</f>
-        <v>前用紙名1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" ref="D5:D31" si="0">"前"&amp;B5</f>
-        <v>前外内容1</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" ref="K5:K24" si="1">"前"&amp;I5</f>
-        <v>前用紙枚数1</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>前外決定金額1</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙単価1</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>前外注名2</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙金額1</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>前外内容2</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙名2</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>前外決定金額2</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙枚数2</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>前外注名3</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙単価2</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="B11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>前外内容3</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙金額2</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="B12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>前外決定金額3</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙名3</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="B13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>前外注名4</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙枚数3</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>前外内容4</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙単価3</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>前外決定金額4</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙金額3</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>前外注名5</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙名4</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>前外内容5</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙枚数4</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>前外決定金額5</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙単価4</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>前外注名6</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙金額4</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>前外内容6</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙名5</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>前外決定金額6</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙枚数5</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>前外注名7</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙単価5</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>前外内容7</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙金額5</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>前外決定金額7</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="1"/>
-        <v>前用紙金額合計</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="B25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>前外注名8</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="B26" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>前外内容8</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>前外決定金額8</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>前外注名9</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>前外内容9</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>前外決定金額9</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>前外注金額合計</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D1CB41-9A8E-4316-A113-DFE8AAEFF2A8}">
-  <dimension ref="A1:K9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" customWidth="1"/>
-    <col min="4" max="4" width="116.25" customWidth="1"/>
-    <col min="5" max="11" width="12.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="12" t="str">
-        <f>_xlfn.TEXTJOIN(,,E1,A1,F1,B1,G1,A1,H1,B1,I1,A1,J1,B1,K1)</f>
-        <v>#条件選択（[売上総額] &gt; [前売上総額] , &amp;↑,[売上総額] &lt; [前売上総額] , &amp;↓, [売上総額] = [前売上総額], "" )</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2" s="12" t="str">
-        <f>_xlfn.TEXTJOIN(,,E2,A1,F2,B1,G2,A1,H2,B1,I2)</f>
-        <v>#条件選択（[売上総額] &gt; [前売上総額] , &amp;赤STR , [売上総額] &lt; [前売上総額] , &amp;青STR )</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>